--- a/villa_claudiae/Villa Claudiae.xlsx
+++ b/villa_claudiae/Villa Claudiae.xlsx
@@ -691,10 +691,10 @@
     <t xml:space="preserve">septimus</t>
   </si>
   <si>
-    <t xml:space="preserve">ceram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cera</t>
+    <t xml:space="preserve">cenam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cena</t>
   </si>
   <si>
     <t xml:space="preserve">destinata</t>
@@ -1295,11 +1295,11 @@
   </sheetPr>
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C182" activeCellId="0" sqref="C182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
@@ -7927,7 +7927,7 @@
       <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.33"/>
